--- a/biology/Zoologie/Alopias_grandis/Alopias_grandis.xlsx
+++ b/biology/Zoologie/Alopias_grandis/Alopias_grandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecias grandis
 Alopias grandis est une espèce fossile de grands requins lamniformes appartenant genre Alopias, ayant vécu durant le Miocène moyen dans ce qui actuellement l'est des États-Unis et peut-être même l'Europe. Il s'agit d'un grand représentant du genre, ayant une taille estimé comme étant similaire à celui du grand requin blanc actuel.
@@ -512,10 +524,12 @@
           <t>Découverte et fossiles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce A. grandis fut nommé en 1942 par le paléontologue français Maurice Leriche sous le nom d'Alopecias grandis à partir d'une dent provenant de la formation de Calvert (en), situé au nord-est des États-Unis[1],[2]. Cette espèce fut plus tard transféré dans le genre Alopias[3].  
-D'autres fossiles de l'espèce seront découverts dans le comté de Beaufort, toujours aux États-Unis[3]. Des spécimens attribués ont même été découverts à Malte[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce A. grandis fut nommé en 1942 par le paléontologue français Maurice Leriche sous le nom d'Alopecias grandis à partir d'une dent provenant de la formation de Calvert (en), situé au nord-est des États-Unis,. Cette espèce fut plus tard transféré dans le genre Alopias.  
+D'autres fossiles de l'espèce seront découverts dans le comté de Beaufort, toujours aux États-Unis. Des spécimens attribués ont même été découverts à Malte.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les estimations calculées à partir de comparaisons de dents suggèrent que l'animal aurait été de taille comparable au grand requin blanc existant. Il est d'ailleurs peu probable que le requin possédait le lobe de queue allongé des requins-renards actuels[3]. Certains spécimens datant du Burdigalien montrent des débuts de dentelures, qui sont vraisemblablement des individus de transition entre A. grandis et A. palatasi[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les estimations calculées à partir de comparaisons de dents suggèrent que l'animal aurait été de taille comparable au grand requin blanc existant. Il est d'ailleurs peu probable que le requin possédait le lobe de queue allongé des requins-renards actuels. Certains spécimens datant du Burdigalien montrent des débuts de dentelures, qui sont vraisemblablement des individus de transition entre A. grandis et A. palatasi.
 </t>
         </is>
       </c>
